--- a/medicine/Mort/Cimetière_militaire_belge_d'Eppegem/Cimetière_militaire_belge_d'Eppegem.xlsx
+++ b/medicine/Mort/Cimetière_militaire_belge_d'Eppegem/Cimetière_militaire_belge_d'Eppegem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_d%27Eppegem</t>
+          <t>Cimetière_militaire_belge_d'Eppegem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire belge d'Eppegem est un cimetière militaire situé Brusselsesteenweg à Eppegem, un village de l'entité de Zemst.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_d%27Eppegem</t>
+          <t>Cimetière_militaire_belge_d'Eppegem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a une superficie de 22 ares. Y reposent 228 soldats belges tombés lors de la Première Guerre mondiale. Des 228 tombes, 46 appartiennent à des soldats non-identifiés. Les soldats qui reposent dans ce cimetière sont tombés durant le siège d'Anvers du 24 au 26 août 1914.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_d%27Eppegem</t>
+          <t>Cimetière_militaire_belge_d'Eppegem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(nl) Adjudant-major Rudy Laforce, Verbroedering van de Genie van het Cavaleriekorps en de Gepantserde Genie, no 129, 53e année, 2e trimestre 2004.
 (nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Belgische militaire begraafplaats van Eppegem » (voir la liste des auteurs).
